--- a/POMIARY.xlsx
+++ b/POMIARY.xlsx
@@ -505,11 +505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86043344"/>
-        <c:axId val="86043904"/>
+        <c:axId val="146798944"/>
+        <c:axId val="146800064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86043344"/>
+        <c:axId val="146798944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -566,15 +566,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86043904"/>
+        <c:crossAx val="146800064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86043904"/>
+        <c:axId val="146800064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,10 +628,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86043344"/>
+        <c:crossAx val="146798944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -669,7 +669,443 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$G$2:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-86.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-79.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-79.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-86.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-288.07199999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-299.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-302.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-311.03999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-318.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-323.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-337.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-350.42399999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-352.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-349.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-334.90800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-329.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-308.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-293.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-293.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-284.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-279.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-275.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-277.92</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-280.08000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="45787392"/>
+        <c:axId val="45786272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="45787392"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45786272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45786272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45787392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -720,6 +1156,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1236,20 +1712,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1263,6 +2255,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1659,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +2694,7 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1689,7 +2711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>300</v>
       </c>
@@ -1706,8 +2728,16 @@
       <c r="E2" s="12">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f t="shared" ref="F2:F4" si="0">(1/A2)*1000000-E2</f>
+        <v>2533.3333333333335</v>
+      </c>
+      <c r="G2">
+        <f>-(A2*360*E2)/1000000</f>
+        <v>-86.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>500</v>
       </c>
@@ -1718,14 +2748,22 @@
         <v>800</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D24" si="0">C3/B3</f>
+        <f t="shared" ref="D3:D24" si="1">C3/B3</f>
         <v>0.25316455696202533</v>
       </c>
       <c r="E3" s="12">
         <v>440</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="2">-(A3*360*E3)/1000000</f>
+        <v>-79.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1000</v>
       </c>
@@ -1736,14 +2774,22 @@
         <v>1400</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.44303797468354428</v>
       </c>
       <c r="E4" s="12">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>-79.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1500</v>
       </c>
@@ -1754,17 +2800,22 @@
         <v>2000</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63291139240506333</v>
       </c>
       <c r="E5" s="12">
-        <v>144</v>
-      </c>
-      <c r="F5" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <f>(1/A5)*1000000-E5</f>
+        <v>516.66666666666663</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2000</v>
       </c>
@@ -1775,14 +2826,22 @@
         <v>2900</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91772151898734178</v>
       </c>
       <c r="E6" s="12">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <f>(1/A6)*1000000-E6</f>
+        <v>380</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>-86.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2500</v>
       </c>
@@ -1793,14 +2852,22 @@
         <v>4400</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3924050632911393</v>
       </c>
       <c r="E7" s="12">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F27" si="3">(1/A7)*1000000-E7</f>
+        <v>290</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2700</v>
       </c>
@@ -1811,14 +2878,22 @@
         <v>5600</v>
       </c>
       <c r="D8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.728395061728395</v>
       </c>
       <c r="E8" s="12">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>296.37037037037032</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G27" si="4">-(A8*360*F8)/1000000</f>
+        <v>-288.07199999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3000</v>
       </c>
@@ -1829,14 +2904,22 @@
         <v>8000</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4691358024691357</v>
       </c>
       <c r="E9" s="12">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>277.33333333333331</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>-299.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3200</v>
       </c>
@@ -1847,14 +2930,22 @@
         <v>9300</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8703703703703702</v>
       </c>
       <c r="E10" s="12">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>262.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>-302.39999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3400</v>
       </c>
@@ -1865,14 +2956,22 @@
         <v>11800</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6419753086419755</v>
       </c>
       <c r="E11" s="12">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>254.11764705882348</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>-311.03999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3500</v>
       </c>
@@ -1883,14 +2982,22 @@
         <v>13200</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0740740740740744</v>
       </c>
       <c r="E12" s="12">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>252.71428571428572</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-318.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3600</v>
       </c>
@@ -1901,14 +3008,22 @@
         <v>15000</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6296296296296298</v>
       </c>
       <c r="E13" s="12">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>249.77777777777777</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>-323.71199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3700</v>
       </c>
@@ -1919,14 +3034,22 @@
         <v>16700</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1543209876543212</v>
       </c>
       <c r="E14" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>253.27027027027026</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>-337.35599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3800</v>
       </c>
@@ -1937,14 +3060,22 @@
         <v>17800</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4938271604938276</v>
       </c>
       <c r="E15" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>256.15789473684208</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>-350.42399999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3900</v>
       </c>
@@ -1955,14 +3086,22 @@
         <v>18200</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.617283950617284</v>
       </c>
       <c r="E16" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>251.41025641025641</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>-352.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>4000</v>
       </c>
@@ -1973,14 +3112,22 @@
         <v>17400</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3703703703703702</v>
       </c>
       <c r="E17" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>-349.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>4100</v>
       </c>
@@ -1991,14 +3138,22 @@
         <v>17000</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2469135802469138</v>
       </c>
       <c r="E18" s="12">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>226.90243902439025</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>-334.90800000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4200</v>
       </c>
@@ -2009,14 +3164,22 @@
         <v>15000</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6296296296296298</v>
       </c>
       <c r="E19" s="12">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>218.0952380952381</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>-329.76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>4500</v>
       </c>
@@ -2027,14 +3190,22 @@
         <v>11500</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5493827160493829</v>
       </c>
       <c r="E20" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>190.22222222222223</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-308.16000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>4750</v>
       </c>
@@ -2045,14 +3216,22 @@
         <v>9200</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8395061728395063</v>
       </c>
       <c r="E21" s="12">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>171.5263157894737</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>-293.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>5000</v>
       </c>
@@ -2063,14 +3242,22 @@
         <v>7500</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3148148148148149</v>
       </c>
       <c r="E22" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>-293.39999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>6000</v>
       </c>
@@ -2081,14 +3268,22 @@
         <v>5000</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5432098765432098</v>
       </c>
       <c r="E23" s="12">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>131.66666666666666</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>-284.39999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>7000</v>
       </c>
@@ -2099,14 +3294,22 @@
         <v>3800</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1728395061728396</v>
       </c>
       <c r="E24" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>110.85714285714286</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>-279.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>9000</v>
       </c>
@@ -2117,14 +3320,22 @@
         <v>2600</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" ref="D25:D28" si="1">C25/B25</f>
+        <f t="shared" ref="D25:D28" si="5">C25/B25</f>
         <v>0.80246913580246915</v>
       </c>
       <c r="E25" s="12">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>85.111111111111114</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>-275.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>12000</v>
       </c>
@@ -2135,14 +3346,22 @@
         <v>2100</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.64814814814814814</v>
       </c>
       <c r="E26" s="12">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>64.333333333333329</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>-277.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>15000</v>
       </c>
@@ -2153,14 +3372,22 @@
         <v>1800</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="E27" s="12">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>51.866666666666674</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>-280.08000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>30000</v>
       </c>
@@ -2171,23 +3398,23 @@
         <v>1200</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.37037037037037035</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/POMIARY.xlsx
+++ b/POMIARY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">1 zmierzyć czy filtr filtruje </t>
   </si>
@@ -84,9 +84,6 @@
     <t>Vwy p-p [mV]</t>
   </si>
   <si>
-    <t>8u</t>
-  </si>
-  <si>
     <t>U[V]</t>
   </si>
   <si>
@@ -100,6 +97,18 @@
   </si>
   <si>
     <t>Wartość skoku 2.72 V</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>p[obl]</t>
+  </si>
+  <si>
+    <t>V/V</t>
   </si>
 </sst>
 </file>
@@ -215,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,6 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -279,8 +289,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.8433515041389063E-2"/>
-          <c:y val="7.407407407407407E-2"/>
+          <c:x val="8.843347818932705E-2"/>
+          <c:y val="5.1249463458731472E-2"/>
           <c:w val="0.83955796150481188"/>
           <c:h val="0.8416746864975212"/>
         </c:manualLayout>
@@ -291,10 +301,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>pomiar</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -305,11 +318,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -457,7 +470,7 @@
                   <c:v>5.617283950617284</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3703703703703702</c:v>
+                  <c:v>5.4320987654320989</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>5.2469135802469138</c:v>
@@ -491,6 +504,254 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.37037037037037035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>symulacja</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$J$2:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1866</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3549</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3673</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3776</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3809</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3963</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4071</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4294</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4576</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4688</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4897</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5390</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5823</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6299</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7445</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9075</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11722</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17910</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$K$2:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.327</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9189999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.367</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1347999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2236</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28616999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,11 +766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146798944"/>
-        <c:axId val="146800064"/>
+        <c:axId val="188298224"/>
+        <c:axId val="188302144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146798944"/>
+        <c:axId val="188298224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -532,6 +793,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Częstotliowść</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -569,12 +904,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146800064"/>
+        <c:crossAx val="188302144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146800064"/>
+        <c:axId val="188302144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,6 +929,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Vout/Vin</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [V/V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -631,7 +1027,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146798944"/>
+        <c:crossAx val="188298224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -643,6 +1039,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -694,46 +1122,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1899350141947144E-2"/>
+          <c:y val="2.3687139107611548E-2"/>
+          <c:w val="0.86153357504751849"/>
+          <c:h val="0.81581565016237378"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>symulacja</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -744,15 +1154,227 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$G$2:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3707</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4447</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4787</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4876</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5322</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6656</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8530</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$H$2:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-90.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-94.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-98.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-101.358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-105.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-107.902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-110.252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-112.849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-117.967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-121.742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-126.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-137.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-156.619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-180.65899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-188.042</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-215.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-223.185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-229.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-232.83799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-237.83600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-240.56200000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-243.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-245.85900000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-248.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-252.137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-256.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-259.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-263.65800000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-270.10899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>pomiar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -760,10 +1382,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz2!$A$2:$A$27</c:f>
+              <c:f>Arkusz2!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -841,93 +1463,99 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz2!$G$2:$G$27</c:f>
+              <c:f>Arkusz2!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>-86.4</c:v>
+                  <c:v>-93.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-79.2</c:v>
+                  <c:v>-97.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-79.2</c:v>
+                  <c:v>-100.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-81</c:v>
+                  <c:v>-102.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-86.4</c:v>
+                  <c:v>-105.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-99</c:v>
+                  <c:v>-109.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-288.07199999999995</c:v>
+                  <c:v>-112.932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-299.52</c:v>
+                  <c:v>-117.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-302.39999999999998</c:v>
+                  <c:v>-122.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-311.03999999999996</c:v>
+                  <c:v>-131.04</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-318.42</c:v>
+                  <c:v>-138.42000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-323.71199999999999</c:v>
+                  <c:v>-143.71199999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-337.35599999999999</c:v>
+                  <c:v>-157.35599999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-350.42399999999992</c:v>
+                  <c:v>-170.42400000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-352.98</c:v>
+                  <c:v>-187.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-349.92</c:v>
+                  <c:v>-190.08</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-334.90800000000002</c:v>
+                  <c:v>-205.09199999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-329.76</c:v>
+                  <c:v>-210.24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-308.16000000000003</c:v>
+                  <c:v>-231.84</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-293.31</c:v>
+                  <c:v>-246.69</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-293.39999999999998</c:v>
+                  <c:v>-246.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-284.39999999999998</c:v>
+                  <c:v>-255.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-279.36</c:v>
+                  <c:v>-260.64</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-275.76</c:v>
+                  <c:v>-264.24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-277.92</c:v>
+                  <c:v>-262.08</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-280.08000000000004</c:v>
+                  <c:v>-266.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-266.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,14 +1570,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45787392"/>
-        <c:axId val="45786272"/>
+        <c:axId val="194199728"/>
+        <c:axId val="194199168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45787392"/>
+        <c:axId val="194199728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="30000"/>
           <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -968,6 +1597,197 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Częstotliowść</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194199168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="194199168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Kąt</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="30000"/>
+                  <a:t>o</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1005,69 +1825,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45786272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="45786272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="45787392"/>
+        <c:crossAx val="194199728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1079,6 +1837,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2232,16 +3022,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2262,16 +3052,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2681,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +3484,7 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2710,8 +3500,23 @@
       <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>300</v>
       </c>
@@ -2728,16 +3533,24 @@
       <c r="E2" s="12">
         <v>800</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F4" si="0">(1/A2)*1000000-E2</f>
-        <v>2533.3333333333335</v>
-      </c>
       <c r="G2">
-        <f>-(A2*360*E2)/1000000</f>
-        <v>-86.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="H2">
+        <v>-90.9</v>
+      </c>
+      <c r="I2">
+        <f>-180+360*A2*E2/1000000</f>
+        <v>-93.6</v>
+      </c>
+      <c r="J2">
+        <v>300</v>
+      </c>
+      <c r="K2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>500</v>
       </c>
@@ -2748,22 +3561,30 @@
         <v>800</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D24" si="1">C3/B3</f>
+        <f t="shared" ref="D3:D24" si="0">C3/B3</f>
         <v>0.25316455696202533</v>
       </c>
       <c r="E3" s="12">
-        <v>440</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>1560</v>
+        <v>460</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">-(A3*360*E3)/1000000</f>
-        <v>-79.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+      <c r="H3">
+        <v>-94.43</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I28" si="1">-180+360*A3*E3/1000000</f>
+        <v>-97.2</v>
+      </c>
+      <c r="J3">
+        <v>464</v>
+      </c>
+      <c r="K3">
+        <v>0.15279999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1000</v>
       </c>
@@ -2774,22 +3595,30 @@
         <v>1400</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.44303797468354428</v>
       </c>
       <c r="E4" s="12">
         <v>220</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>780</v>
-      </c>
       <c r="G4">
-        <f t="shared" si="2"/>
-        <v>-79.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2032</v>
+      </c>
+      <c r="H4">
+        <v>-98.718000000000004</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-100.8</v>
+      </c>
+      <c r="J4">
+        <v>700</v>
+      </c>
+      <c r="K4">
+        <v>0.23449999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1500</v>
       </c>
@@ -2800,22 +3629,31 @@
         <v>2000</v>
       </c>
       <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63291139240506333</v>
+      </c>
+      <c r="E5" s="12">
+        <v>144</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
+        <v>2339</v>
+      </c>
+      <c r="H5" s="12">
+        <v>-101.358</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.63291139240506333</v>
-      </c>
-      <c r="E5" s="12">
-        <v>150</v>
-      </c>
-      <c r="F5">
-        <f>(1/A5)*1000000-E5</f>
-        <v>516.66666666666663</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>-81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-102.24</v>
+      </c>
+      <c r="J5">
+        <v>991</v>
+      </c>
+      <c r="K5">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2000</v>
       </c>
@@ -2826,22 +3664,30 @@
         <v>2900</v>
       </c>
       <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.91772151898734178</v>
+      </c>
+      <c r="E6" s="12">
+        <v>104</v>
+      </c>
+      <c r="G6">
+        <v>2656</v>
+      </c>
+      <c r="H6">
+        <v>-105.24</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>0.91772151898734178</v>
-      </c>
-      <c r="E6" s="12">
-        <v>120</v>
-      </c>
-      <c r="F6">
-        <f>(1/A6)*1000000-E6</f>
-        <v>380</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>-86.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-105.12</v>
+      </c>
+      <c r="J6">
+        <v>1306</v>
+      </c>
+      <c r="K6">
+        <v>0.47649999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2500</v>
       </c>
@@ -2852,22 +3698,30 @@
         <v>4400</v>
       </c>
       <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3924050632911393</v>
+      </c>
+      <c r="E7" s="12">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>2819</v>
+      </c>
+      <c r="H7">
+        <v>-107.902</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>1.3924050632911393</v>
-      </c>
-      <c r="E7" s="12">
-        <v>110</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F27" si="3">(1/A7)*1000000-E7</f>
-        <v>290</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-109.8</v>
+      </c>
+      <c r="J7">
+        <v>1549</v>
+      </c>
+      <c r="K7">
+        <v>0.59489999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2700</v>
       </c>
@@ -2878,22 +3732,30 @@
         <v>5600</v>
       </c>
       <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.728395061728395</v>
+      </c>
+      <c r="E8" s="12">
+        <v>69</v>
+      </c>
+      <c r="G8">
+        <v>2925</v>
+      </c>
+      <c r="H8">
+        <v>-110.252</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>1.728395061728395</v>
-      </c>
-      <c r="E8" s="12">
-        <v>74</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>296.37037037037032</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G27" si="4">-(A8*360*F8)/1000000</f>
-        <v>-288.07199999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-112.932</v>
+      </c>
+      <c r="J8">
+        <v>1866</v>
+      </c>
+      <c r="K8">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3000</v>
       </c>
@@ -2904,22 +3766,30 @@
         <v>8000</v>
       </c>
       <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4691358024691357</v>
+      </c>
+      <c r="E9" s="12">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>3034</v>
+      </c>
+      <c r="H9">
+        <v>-112.849</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>2.4691358024691357</v>
-      </c>
-      <c r="E9" s="12">
-        <v>56</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>277.33333333333331</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>-299.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-117.36</v>
+      </c>
+      <c r="J9">
+        <v>2249</v>
+      </c>
+      <c r="K9">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3200</v>
       </c>
@@ -2930,22 +3800,30 @@
         <v>9300</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8703703703703702</v>
       </c>
       <c r="E10" s="12">
         <v>50</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>262.5</v>
-      </c>
       <c r="G10">
-        <f t="shared" si="4"/>
-        <v>-302.39999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3185</v>
+      </c>
+      <c r="H10">
+        <v>-117.967</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-122.4</v>
+      </c>
+      <c r="J10">
+        <v>2518</v>
+      </c>
+      <c r="K10">
+        <v>1.3740000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3400</v>
       </c>
@@ -2956,22 +3834,30 @@
         <v>11800</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.6419753086419755</v>
       </c>
       <c r="E11" s="12">
         <v>40</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>254.11764705882348</v>
-      </c>
       <c r="G11">
-        <f t="shared" si="4"/>
-        <v>-311.03999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3274</v>
+      </c>
+      <c r="H11">
+        <v>-121.742</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-131.04</v>
+      </c>
+      <c r="J11">
+        <v>2729</v>
+      </c>
+      <c r="K11">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3500</v>
       </c>
@@ -2982,22 +3868,30 @@
         <v>13200</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0740740740740744</v>
       </c>
       <c r="E12" s="12">
         <v>33</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>252.71428571428572</v>
-      </c>
       <c r="G12">
-        <f t="shared" si="4"/>
-        <v>-318.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3366</v>
+      </c>
+      <c r="H12">
+        <v>-126.47</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-138.42000000000002</v>
+      </c>
+      <c r="J12">
+        <v>2937</v>
+      </c>
+      <c r="K12">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3600</v>
       </c>
@@ -3008,22 +3902,30 @@
         <v>15000</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.6296296296296298</v>
       </c>
       <c r="E13" s="12">
         <v>28</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>249.77777777777777</v>
-      </c>
       <c r="G13">
-        <f t="shared" si="4"/>
-        <v>-323.71199999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3524</v>
+      </c>
+      <c r="H13">
+        <v>-137.6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-143.71199999999999</v>
+      </c>
+      <c r="J13">
+        <v>3098</v>
+      </c>
+      <c r="K13">
+        <v>2.5169999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3700</v>
       </c>
@@ -3034,22 +3936,30 @@
         <v>16700</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.1543209876543212</v>
       </c>
       <c r="E14" s="12">
         <v>17</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>253.27027027027026</v>
-      </c>
       <c r="G14">
-        <f t="shared" si="4"/>
-        <v>-337.35599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3707</v>
+      </c>
+      <c r="H14">
+        <v>-156.619</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-157.35599999999999</v>
+      </c>
+      <c r="J14">
+        <v>3282</v>
+      </c>
+      <c r="K14">
+        <v>3.1749999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3800</v>
       </c>
@@ -3060,22 +3970,30 @@
         <v>17800</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4938271604938276</v>
       </c>
       <c r="E15" s="12">
         <v>7</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>256.15789473684208</v>
-      </c>
       <c r="G15">
-        <f t="shared" si="4"/>
-        <v>-350.42399999999992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3883</v>
+      </c>
+      <c r="H15">
+        <v>-180.65899999999999</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-170.42400000000001</v>
+      </c>
+      <c r="J15">
+        <v>3428</v>
+      </c>
+      <c r="K15">
+        <v>3.8759999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3900</v>
       </c>
@@ -3086,22 +4004,30 @@
         <v>18200</v>
       </c>
       <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>5.617283950617284</v>
+      </c>
+      <c r="E16" s="12">
+        <v>-5</v>
+      </c>
+      <c r="G16">
+        <v>3936</v>
+      </c>
+      <c r="H16">
+        <v>-188.042</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="1"/>
-        <v>5.617283950617284</v>
-      </c>
-      <c r="E16" s="12">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>251.41025641025641</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>-352.98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-187.02</v>
+      </c>
+      <c r="J16">
+        <v>3549</v>
+      </c>
+      <c r="K16">
+        <v>4.5720000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>4000</v>
       </c>
@@ -3109,25 +4035,33 @@
         <v>3240</v>
       </c>
       <c r="C17" s="6">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>5.4320987654320989</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-7</v>
+      </c>
+      <c r="G17">
+        <v>4180</v>
+      </c>
+      <c r="H17">
+        <v>-215.60599999999999</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="1"/>
-        <v>5.3703703703703702</v>
-      </c>
-      <c r="E17" s="12">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>243</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>-349.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-190.08</v>
+      </c>
+      <c r="J17">
+        <v>3673</v>
+      </c>
+      <c r="K17">
+        <v>5.327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>4100</v>
       </c>
@@ -3138,22 +4072,30 @@
         <v>17000</v>
       </c>
       <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2469135802469138</v>
+      </c>
+      <c r="E18" s="12">
+        <v>-17</v>
+      </c>
+      <c r="G18">
+        <v>4286</v>
+      </c>
+      <c r="H18">
+        <v>-223.185</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="1"/>
-        <v>5.2469135802469138</v>
-      </c>
-      <c r="E18" s="12">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>226.90243902439025</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>-334.90800000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-205.09199999999998</v>
+      </c>
+      <c r="J18">
+        <v>3733</v>
+      </c>
+      <c r="K18">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4200</v>
       </c>
@@ -3164,22 +4106,30 @@
         <v>15000</v>
       </c>
       <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6296296296296298</v>
+      </c>
+      <c r="E19" s="12">
+        <v>-20</v>
+      </c>
+      <c r="G19">
+        <v>4376</v>
+      </c>
+      <c r="H19">
+        <v>-229.28800000000001</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="1"/>
-        <v>4.6296296296296298</v>
-      </c>
-      <c r="E19" s="12">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>218.0952380952381</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>-329.76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-210.24</v>
+      </c>
+      <c r="J19">
+        <v>3776</v>
+      </c>
+      <c r="K19">
+        <v>5.8795999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>4500</v>
       </c>
@@ -3190,22 +4140,30 @@
         <v>11500</v>
       </c>
       <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5493827160493829</v>
+      </c>
+      <c r="E20" s="12">
+        <v>-32</v>
+      </c>
+      <c r="G20">
+        <v>4447</v>
+      </c>
+      <c r="H20">
+        <v>-232.83799999999999</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="1"/>
-        <v>3.5493827160493829</v>
-      </c>
-      <c r="E20" s="12">
-        <v>32</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>190.22222222222223</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>-308.16000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-231.84</v>
+      </c>
+      <c r="J20">
+        <v>3809</v>
+      </c>
+      <c r="K20">
+        <v>5.9189999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>4750</v>
       </c>
@@ -3216,22 +4174,30 @@
         <v>9200</v>
       </c>
       <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8395061728395063</v>
+      </c>
+      <c r="E21" s="12">
+        <v>-39</v>
+      </c>
+      <c r="G21">
+        <v>4572</v>
+      </c>
+      <c r="H21">
+        <v>-237.83600000000001</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="1"/>
-        <v>2.8395061728395063</v>
-      </c>
-      <c r="E21" s="12">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>171.5263157894737</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>-293.31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-246.69</v>
+      </c>
+      <c r="J21">
+        <v>3874</v>
+      </c>
+      <c r="K21">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>5000</v>
       </c>
@@ -3242,22 +4208,30 @@
         <v>7500</v>
       </c>
       <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3148148148148149</v>
+      </c>
+      <c r="E22" s="12">
+        <v>-37</v>
+      </c>
+      <c r="G22">
+        <v>4667</v>
+      </c>
+      <c r="H22">
+        <v>-240.56200000000001</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="1"/>
-        <v>2.3148148148148149</v>
-      </c>
-      <c r="E22" s="12">
-        <v>37</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>163</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>-293.39999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-246.6</v>
+      </c>
+      <c r="J22">
+        <v>3963</v>
+      </c>
+      <c r="K22">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>6000</v>
       </c>
@@ -3268,22 +4242,30 @@
         <v>5000</v>
       </c>
       <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5432098765432098</v>
+      </c>
+      <c r="E23" s="12">
+        <v>-35</v>
+      </c>
+      <c r="G23">
+        <v>4787</v>
+      </c>
+      <c r="H23">
+        <v>-243.96</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="1"/>
-        <v>1.5432098765432098</v>
-      </c>
-      <c r="E23" s="12">
-        <v>35</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>131.66666666666666</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>-284.39999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-255.6</v>
+      </c>
+      <c r="J23">
+        <v>4071</v>
+      </c>
+      <c r="K23">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>7000</v>
       </c>
@@ -3294,22 +4276,30 @@
         <v>3800</v>
       </c>
       <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1728395061728396</v>
+      </c>
+      <c r="E24" s="12">
+        <v>-32</v>
+      </c>
+      <c r="G24">
+        <v>4876</v>
+      </c>
+      <c r="H24">
+        <v>-245.85900000000001</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="1"/>
-        <v>1.1728395061728396</v>
-      </c>
-      <c r="E24" s="12">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>110.85714285714286</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>-279.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-260.64</v>
+      </c>
+      <c r="J24">
+        <v>4294</v>
+      </c>
+      <c r="K24">
+        <v>4.3150000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>9000</v>
       </c>
@@ -3320,22 +4310,30 @@
         <v>2600</v>
       </c>
       <c r="D25" s="7">
-        <f t="shared" ref="D25:D28" si="5">C25/B25</f>
+        <f t="shared" ref="D25:D28" si="2">C25/B25</f>
         <v>0.80246913580246915</v>
       </c>
       <c r="E25" s="12">
-        <v>26</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>85.111111111111114</v>
+        <v>-26</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
-        <v>-275.76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5024</v>
+      </c>
+      <c r="H25">
+        <v>-248.28100000000001</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-264.24</v>
+      </c>
+      <c r="J25">
+        <v>4576</v>
+      </c>
+      <c r="K25">
+        <v>3.367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>12000</v>
       </c>
@@ -3346,22 +4344,30 @@
         <v>2100</v>
       </c>
       <c r="D26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.64814814814814814</v>
       </c>
       <c r="E26" s="12">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>64.333333333333329</v>
+        <v>-19</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
-        <v>-277.92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5322</v>
+      </c>
+      <c r="H26">
+        <v>-252.137</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>-262.08</v>
+      </c>
+      <c r="J26">
+        <v>4688</v>
+      </c>
+      <c r="K26">
+        <v>2.8980000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>15000</v>
       </c>
@@ -3372,22 +4378,30 @@
         <v>1800</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="E27" s="12">
-        <v>14.8</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>51.866666666666674</v>
+        <v>-16</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
-        <v>-280.08000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5795</v>
+      </c>
+      <c r="H27">
+        <v>-256.87</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-266.39999999999998</v>
+      </c>
+      <c r="J27">
+        <v>4897</v>
+      </c>
+      <c r="K27">
+        <v>2.448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>30000</v>
       </c>
@@ -3398,33 +4412,111 @@
         <v>1200</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.37037037037037035</v>
       </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>-8</v>
+      </c>
+      <c r="G28">
+        <v>6656</v>
+      </c>
+      <c r="H28">
+        <v>-259.91300000000001</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-266.39999999999998</v>
+      </c>
+      <c r="J28">
+        <v>5096</v>
+      </c>
+      <c r="K28">
+        <v>2.1347999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>8530</v>
+      </c>
+      <c r="H29">
+        <v>-263.65800000000002</v>
+      </c>
+      <c r="J29">
+        <v>5390</v>
+      </c>
+      <c r="K29">
+        <v>1.7949999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>29182</v>
+      </c>
+      <c r="H30">
+        <v>-270.10899999999998</v>
+      </c>
+      <c r="J30">
+        <v>5823</v>
+      </c>
+      <c r="K30">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>6299</v>
+      </c>
+      <c r="K31">
+        <v>1.2236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>7445</v>
+      </c>
+      <c r="K32">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>9075</v>
+      </c>
+      <c r="K33">
+        <v>0.65490000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>11722</v>
+      </c>
+      <c r="K34">
+        <v>0.46679999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
+      <c r="J35">
+        <v>17910</v>
+      </c>
+      <c r="K35">
+        <v>0.28616999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>30000</v>
+      </c>
+      <c r="K36">
+        <v>0.16600000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3445,10 +4537,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3467,7 +4559,7 @@
         <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,7 +4586,7 @@
         <v>580</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3521,7 +4613,7 @@
         <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">

--- a/POMIARY.xlsx
+++ b/POMIARY.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t xml:space="preserve">1 zmierzyć czy filtr filtruje </t>
   </si>
@@ -66,9 +66,6 @@
     <t>Mamy zidentyfikować tęfunkcję</t>
   </si>
   <si>
-    <t>Robimy to po to aby zpaisać to w postaci równania np.. U(t)=Ae^-alfa*t* delta (coś) *2*pi*f0*t</t>
-  </si>
-  <si>
     <t>Następnie liczymy transformate Laplace'a</t>
   </si>
   <si>
@@ -109,6 +106,21 @@
   </si>
   <si>
     <t>V/V</t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>T [us]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Robimy to po to aby zpaisać to w postaci równania np.. U(t)=Ae^(-a*t)* cos(2*pi*f0*t)</t>
   </si>
 </sst>
 </file>
@@ -766,11 +778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188298224"/>
-        <c:axId val="188302144"/>
+        <c:axId val="198275024"/>
+        <c:axId val="198277824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188298224"/>
+        <c:axId val="198275024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -793,20 +805,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -904,12 +902,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188302144"/>
+        <c:crossAx val="198277824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188302144"/>
+        <c:axId val="198277824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1025,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="188298224"/>
+        <c:crossAx val="198275024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1570,11 +1568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194199728"/>
-        <c:axId val="194199168"/>
+        <c:axId val="201410816"/>
+        <c:axId val="201411376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194199728"/>
+        <c:axId val="201410816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1694,12 +1692,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194199168"/>
+        <c:crossAx val="201411376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194199168"/>
+        <c:axId val="201411376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,12 +1737,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>Kąt</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="pl-PL" baseline="0"/>
-                  <a:t> [</a:t>
+                  <a:t>Faza [</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pl-PL" baseline="30000"/>
@@ -1825,7 +1819,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194199728"/>
+        <c:crossAx val="201410816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3370,15 +3364,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3443,7 +3438,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -3451,17 +3446,192 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>1/(10000*0.00000000315)</f>
+        <v>31746.031746031746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f>1/(120000*0.00000000315)+1/(120000*0.00000000315)</f>
+        <v>5291.0052910052909</v>
+      </c>
+      <c r="I18">
+        <f>(1/10000+1/1570)/(120000*0.00000000315*0.00000000315)</f>
+        <v>618915491.02144587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-2.84</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2.04</v>
+      </c>
+      <c r="B21">
+        <v>188</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1.4</v>
+      </c>
+      <c r="B22">
+        <v>320</v>
+      </c>
+      <c r="H22">
+        <f>H21/2</f>
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1.4</v>
+      </c>
+      <c r="B23">
+        <v>448</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-680</v>
+      </c>
+      <c r="B24">
+        <v>580</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>260</v>
+      </c>
+      <c r="H24">
+        <f>1/(G24/1000000)</f>
+        <v>3846.1538461538466</v>
+      </c>
+      <c r="I24">
+        <v>3.1682700000000001</v>
+      </c>
+      <c r="J24">
+        <v>1823.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>550</v>
+      </c>
+      <c r="B25">
+        <v>704</v>
+      </c>
+      <c r="I25">
+        <v>2.6782699999999999</v>
+      </c>
+      <c r="J25">
+        <v>1447.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-280</v>
+      </c>
+      <c r="B26">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <f>B27+$B$26</f>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-120</v>
+      </c>
+      <c r="B28">
+        <v>264</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F30" si="0">B28+$B$26</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>130</v>
+      </c>
+      <c r="B29">
+        <v>388</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-40</v>
+      </c>
+      <c r="B30">
+        <v>516</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1352</v>
       </c>
     </row>
   </sheetData>
@@ -3471,10 +3641,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-2.84</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.04</v>
+      </c>
+      <c r="B3">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1.4</v>
+      </c>
+      <c r="B4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.4</v>
+      </c>
+      <c r="B5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-680</v>
+      </c>
+      <c r="B6">
+        <v>580</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>550</v>
+      </c>
+      <c r="B7">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-280</v>
+      </c>
+      <c r="B8">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>250</v>
+      </c>
+      <c r="B9">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <f>B9+$B$8</f>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-120</v>
+      </c>
+      <c r="B10">
+        <v>264</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F12" si="0">B10+$B$8</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>388</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-40</v>
+      </c>
+      <c r="B12">
+        <v>516</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC36"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,15 +3790,15 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -3501,22 +3807,22 @@
         <v>10</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>300</v>
       </c>
@@ -3550,7 +3856,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>500</v>
       </c>
@@ -3584,7 +3890,7 @@
         <v>0.15279999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1000</v>
       </c>
@@ -3618,7 +3924,7 @@
         <v>0.23449999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1500</v>
       </c>
@@ -3653,7 +3959,7 @@
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2000</v>
       </c>
@@ -3686,8 +3992,14 @@
       <c r="K6">
         <v>0.47649999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="AB6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2500</v>
       </c>
@@ -3721,7 +4033,7 @@
         <v>0.59489999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2700</v>
       </c>
@@ -3755,7 +4067,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3000</v>
       </c>
@@ -3789,7 +4101,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3200</v>
       </c>
@@ -3823,7 +4135,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3400</v>
       </c>
@@ -3857,7 +4169,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3500</v>
       </c>
@@ -3891,7 +4203,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3600</v>
       </c>
@@ -3925,7 +4237,7 @@
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3700</v>
       </c>
@@ -3959,7 +4271,7 @@
         <v>3.1749999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>3800</v>
       </c>
@@ -3993,7 +4305,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>3900</v>
       </c>
@@ -4523,124 +4835,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-2.84</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.04</v>
-      </c>
-      <c r="B3">
-        <v>188</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-1.4</v>
-      </c>
-      <c r="B4">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.4</v>
-      </c>
-      <c r="B5">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-680</v>
-      </c>
-      <c r="B6">
-        <v>580</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>550</v>
-      </c>
-      <c r="B7">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-280</v>
-      </c>
-      <c r="B8">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>250</v>
-      </c>
-      <c r="B9">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>-120</v>
-      </c>
-      <c r="B10">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>130</v>
-      </c>
-      <c r="B11">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-40</v>
-      </c>
-      <c r="B12">
-        <v>516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/POMIARY.xlsx
+++ b/POMIARY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t xml:space="preserve">1 zmierzyć czy filtr filtruje </t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Robimy to po to aby zpaisać to w postaci równania np.. U(t)=Ae^(-a*t)* cos(2*pi*f0*t)</t>
+  </si>
+  <si>
+    <t>Obliczone z instrukcji</t>
+  </si>
+  <si>
+    <t>f0 [Hz]</t>
   </si>
 </sst>
 </file>
@@ -778,11 +784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198275024"/>
-        <c:axId val="198277824"/>
+        <c:axId val="192219360"/>
+        <c:axId val="192219920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198275024"/>
+        <c:axId val="192219360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -835,7 +841,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -902,12 +907,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198277824"/>
+        <c:crossAx val="192219920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198277824"/>
+        <c:axId val="192219920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +963,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1025,7 +1029,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198275024"/>
+        <c:crossAx val="192219360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1039,7 +1043,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1568,11 +1571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201410816"/>
-        <c:axId val="201411376"/>
+        <c:axId val="192222160"/>
+        <c:axId val="192222720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201410816"/>
+        <c:axId val="192222160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1625,7 +1628,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1692,12 +1694,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201411376"/>
+        <c:crossAx val="192222720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201411376"/>
+        <c:axId val="192222720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1754,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1819,7 +1820,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201410816"/>
+        <c:crossAx val="192222160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1833,7 +1834,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3366,13 +3366,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3458,6 +3458,9 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H17">
@@ -3512,10 +3515,6 @@
       <c r="B22">
         <v>320</v>
       </c>
-      <c r="H22">
-        <f>H21/2</f>
-        <v>1.36</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3528,7 +3527,7 @@
         <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
         <v>32</v>

--- a/POMIARY.xlsx
+++ b/POMIARY.xlsx
@@ -3367,7 +3367,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,6 +3596,14 @@
         <f>B27+$B$26</f>
         <v>964</v>
       </c>
+      <c r="G27">
+        <f>(B26-B20)/3</f>
+        <v>258.66666666666669</v>
+      </c>
+      <c r="H27">
+        <f>1/G27*1000000</f>
+        <v>3865.9793814432987</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -3619,6 +3627,12 @@
       <c r="F29">
         <f t="shared" si="0"/>
         <v>1224</v>
+      </c>
+      <c r="I29">
+        <v>3.3971499999999999</v>
+      </c>
+      <c r="J29">
+        <v>2985.53</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">

--- a/POMIARY.xlsx
+++ b/POMIARY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t xml:space="preserve">1 zmierzyć czy filtr filtruje </t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>f0 [Hz]</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>instr</t>
   </si>
 </sst>
 </file>
@@ -287,6 +293,463 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$20:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$20:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$P$34:$P$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$O$34:$O$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.9670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256825616"/>
+        <c:axId val="256825056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="256825616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256825056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="256825056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="256825616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -1109,7 +1572,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -1980,6 +2443,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3012,7 +3515,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3364,79 +4418,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3444,31 +4499,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H17">
         <f>1/(10000*0.00000000315)</f>
         <v>31746.031746031746</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>30337.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H18">
         <f>1/(120000*0.00000000315)+1/(120000*0.00000000315)</f>
         <v>5291.0052910052909</v>
@@ -3477,8 +4538,14 @@
         <f>(1/10000+1/1570)/(120000*0.00000000315*0.00000000315)</f>
         <v>618915491.02144587</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>5971.06</v>
+      </c>
+      <c r="L18">
+        <v>598950000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3486,43 +4553,55 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-2.84</v>
       </c>
       <c r="B20">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.04</v>
       </c>
       <c r="B21">
         <v>188</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
         <v>25</v>
       </c>
       <c r="H21">
         <v>2.72</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.4</v>
       </c>
       <c r="B22">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.4</v>
       </c>
       <c r="B23">
         <v>448</v>
       </c>
+      <c r="F23">
+        <v>448</v>
+      </c>
       <c r="G23" t="s">
         <v>31</v>
       </c>
@@ -3536,15 +4615,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-680</v>
+        <v>-0.68</v>
       </c>
       <c r="B24">
         <v>580</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
+      </c>
+      <c r="F24">
+        <v>580</v>
       </c>
       <c r="G24">
         <v>260</v>
@@ -3560,13 +4642,16 @@
         <v>1823.02</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>550</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B25">
         <v>704</v>
       </c>
+      <c r="F25">
+        <v>704</v>
+      </c>
       <c r="I25">
         <v>2.6782699999999999</v>
       </c>
@@ -3574,17 +4659,20 @@
         <v>1447.99</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-280</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="B26">
         <v>836</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>250</v>
+        <v>0.25</v>
       </c>
       <c r="B27">
         <v>128</v>
@@ -3605,27 +4693,27 @@
         <v>3865.9793814432987</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-120</v>
+        <v>-0.12</v>
       </c>
       <c r="B28">
         <v>264</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F30" si="0">B28+$B$26</f>
+        <f>B28+$B$26</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>130</v>
+        <v>0.13</v>
       </c>
       <c r="B29">
         <v>388</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f>B29+$B$26</f>
         <v>1224</v>
       </c>
       <c r="I29">
@@ -3635,20 +4723,117 @@
         <v>2985.53</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-40</v>
+        <v>-0.04</v>
       </c>
       <c r="B30">
         <v>516</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f>B30+$B$26</f>
         <v>1352</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="O33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>-2.9670000000000001</v>
+      </c>
+      <c r="P34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>2.11</v>
+      </c>
+      <c r="P35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>-1.51</v>
+      </c>
+      <c r="P36">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>1.08</v>
+      </c>
+      <c r="P37">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>-0.77</v>
+      </c>
+      <c r="P38">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P39">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="P40">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="P41">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>-0.2</v>
+      </c>
+      <c r="P42">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P43">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>-0.1</v>
+      </c>
+      <c r="P44">
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3657,7 +4842,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:G12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/POMIARY.xlsx
+++ b/POMIARY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t xml:space="preserve">1 zmierzyć czy filtr filtruje </t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Vwy p-p / Vwe p-p</t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
   <si>
     <t>3. Ustawiamy w dziedzinie czasu sygnał sterujący na prostokąt</t>
@@ -108,9 +105,6 @@
     <t>V/V</t>
   </si>
   <si>
-    <t>f0</t>
-  </si>
-  <si>
     <t>T [us]</t>
   </si>
   <si>
@@ -134,12 +128,24 @@
   <si>
     <t>instr</t>
   </si>
+  <si>
+    <t>t[us]</t>
+  </si>
+  <si>
+    <t>Faza[]</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +161,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -203,43 +218,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -255,26 +233,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -307,6 +283,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Odpowiedź skokowa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -346,6 +347,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>pomiar</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -459,6 +463,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>teoria</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -577,11 +584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256825616"/>
-        <c:axId val="256825056"/>
+        <c:axId val="201164592"/>
+        <c:axId val="201165152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256825616"/>
+        <c:axId val="201164592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,6 +608,180 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [us]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="201165152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="201165152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Napięcie [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -638,69 +819,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256825056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="256825056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="256825616"/>
+        <c:crossAx val="201164592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -712,6 +831,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -763,6 +914,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Charakterystyka</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> amplitudowo - częstotliwościowa</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -903,7 +1115,7 @@
             <c:numRef>
               <c:f>Arkusz2!$D$2:$D$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0.12658227848101267</c:v>
@@ -1011,7 +1223,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz2!$J$2:$J$36</c:f>
+              <c:f>Arkusz2!$K$2:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1125,7 +1337,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz2!$K$2:$K$36</c:f>
+              <c:f>Arkusz2!$L$2:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1247,11 +1459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192219360"/>
-        <c:axId val="192219920"/>
+        <c:axId val="201167952"/>
+        <c:axId val="201653024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192219360"/>
+        <c:axId val="201167952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1304,6 +1516,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1370,12 +1583,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192219920"/>
+        <c:crossAx val="201653024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192219920"/>
+        <c:axId val="201653024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,6 +1639,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1455,7 +1669,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1492,7 +1706,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192219360"/>
+        <c:crossAx val="201167952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1506,6 +1720,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1586,6 +1801,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Charakterystyka fazowa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -1603,220 +1874,8 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>symulacja</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz2!$G$2:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1261</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2656</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2819</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2925</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3034</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3185</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3274</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3366</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3524</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3707</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3883</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3936</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4180</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4286</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4376</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4447</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4572</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4787</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4876</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5024</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5322</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5795</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6656</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8530</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29182</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz2!$H$2:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>-90.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-94.43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-98.718000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-101.358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-105.24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-107.902</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-110.252</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-112.849</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-117.967</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-121.742</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-126.47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-137.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-156.619</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-180.65899999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-188.042</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-215.60599999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-223.185</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-229.28800000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-232.83799999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-237.83600000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-240.56200000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-243.96</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-245.85900000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-248.28100000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-252.137</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-256.87</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-259.91300000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-263.65800000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-270.10899999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>pomiar</c:v>
           </c:tx>
@@ -1936,7 +1995,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz2!$I$2:$I$28</c:f>
+              <c:f>Arkusz2!$J$2:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2020,6 +2079,218 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-266.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>symulacja</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz2!$H$2:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2819</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2925</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3707</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4447</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4787</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4876</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5322</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6656</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8530</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz2!$I$2:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-90.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-94.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-98.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-101.358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-105.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-107.902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-110.252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-112.849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-117.967</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-121.742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-126.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-137.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-156.619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-180.65899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-188.042</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-215.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-223.185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-229.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-232.83799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-237.83600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-240.56200000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-243.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-245.85900000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-248.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-252.137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-256.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-259.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-263.65800000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-270.10899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,11 +2305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192222160"/>
-        <c:axId val="192222720"/>
+        <c:axId val="201655824"/>
+        <c:axId val="201656384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192222160"/>
+        <c:axId val="201655824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2091,6 +2362,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2157,12 +2429,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192222720"/>
+        <c:crossAx val="201656384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192222720"/>
+        <c:axId val="201656384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,6 +2489,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2283,7 +2556,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192222160"/>
+        <c:crossAx val="201655824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2297,6 +2570,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4036,15 +4310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
+      <xdr:colOff>442911</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4070,13 +4344,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
@@ -4100,13 +4374,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>14286</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -4420,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4473,51 +4747,51 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
         <v>35</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -4547,10 +4821,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4560,7 +4840,10 @@
       <c r="B20">
         <v>60</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="5">
+        <v>-2.84</v>
+      </c>
+      <c r="F20" s="5">
         <v>60</v>
       </c>
     </row>
@@ -4571,11 +4854,14 @@
       <c r="B21">
         <v>188</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="F21" s="5">
         <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21">
         <v>2.72</v>
@@ -4588,7 +4874,10 @@
       <c r="B22">
         <v>320</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="F22" s="5">
         <v>320</v>
       </c>
     </row>
@@ -4599,20 +4888,23 @@
       <c r="B23">
         <v>448</v>
       </c>
-      <c r="F23">
+      <c r="E23" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="F23" s="5">
         <v>448</v>
       </c>
       <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
         <v>31</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4623,9 +4915,12 @@
         <v>580</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-0.68</v>
+      </c>
+      <c r="F24" s="5">
         <v>580</v>
       </c>
       <c r="G24">
@@ -4649,7 +4944,10 @@
       <c r="B25">
         <v>704</v>
       </c>
-      <c r="F25">
+      <c r="E25" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F25" s="5">
         <v>704</v>
       </c>
       <c r="I25">
@@ -4666,7 +4964,10 @@
       <c r="B26">
         <v>836</v>
       </c>
-      <c r="F26">
+      <c r="E26" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F26" s="5">
         <v>836</v>
       </c>
     </row>
@@ -4678,9 +4979,12 @@
         <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="5">
         <f>B27+$B$26</f>
         <v>964</v>
       </c>
@@ -4700,7 +5004,10 @@
       <c r="B28">
         <v>264</v>
       </c>
-      <c r="F28">
+      <c r="E28" s="5">
+        <v>-0.12</v>
+      </c>
+      <c r="F28" s="5">
         <f>B28+$B$26</f>
         <v>1100</v>
       </c>
@@ -4712,7 +5019,10 @@
       <c r="B29">
         <v>388</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="F29" s="5">
         <f>B29+$B$26</f>
         <v>1224</v>
       </c>
@@ -4730,7 +5040,10 @@
       <c r="B30">
         <v>516</v>
       </c>
-      <c r="F30">
+      <c r="E30" s="5">
+        <v>-0.04</v>
+      </c>
+      <c r="F30" s="5">
         <f>B30+$B$26</f>
         <v>1352</v>
       </c>
@@ -4740,7 +5053,7 @@
         <v>1000</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
@@ -4849,10 +5162,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4871,7 +5184,7 @@
         <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4898,7 +5211,7 @@
         <v>580</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,7 +5238,7 @@
         <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <f>B9+$B$8</f>
@@ -4975,10 +5288,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4988,1043 +5301,1139 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>300</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>3160</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>400</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="12">
         <f>C2/B2</f>
         <v>0.12658227848101267</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>800</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="5">
+        <v>-93.6</v>
+      </c>
+      <c r="H2">
         <v>304</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-90.9</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>-180+360*A2*E2/1000000</f>
         <v>-93.6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>300</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>500</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>3160</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>800</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D24" si="0">C3/B3</f>
         <v>0.25316455696202533</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>460</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="5">
+        <v>-97.2</v>
+      </c>
+      <c r="H3">
         <v>1261</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-94.43</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I28" si="1">-180+360*A3*E3/1000000</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J28" si="1">-180+360*A3*E3/1000000</f>
         <v>-97.2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>464</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.15279999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1000</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>3160</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1400</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>0.44303797468354428</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>220</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="5">
+        <v>-100.8</v>
+      </c>
+      <c r="H4">
         <v>2032</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-98.718000000000004</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="1"/>
         <v>-100.8</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>700</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.23449999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>1500</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3160</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>0.63291139240506333</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>144</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12">
+      <c r="F5" s="13">
+        <v>-102.24</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7">
         <v>2339</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="7">
         <v>-101.358</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="1"/>
         <v>-102.24</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>991</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>2000</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3160</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2900</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>0.91772151898734178</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>104</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="5">
+        <v>-105.12</v>
+      </c>
+      <c r="H6">
         <v>2656</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-105.24</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="1"/>
         <v>-105.12</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1306</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.47649999999999998</v>
       </c>
-      <c r="AB6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>3730</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>2500</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3160</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>4400</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>1.3924050632911393</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>78</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="5">
+        <v>-109.8</v>
+      </c>
+      <c r="H7">
         <v>2819</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-107.902</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="1"/>
         <v>-109.8</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1549</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.59489999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2700</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3240</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>5600</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>1.728395061728395</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>69</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="5">
+        <v>-112.932</v>
+      </c>
+      <c r="H8">
         <v>2925</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-110.252</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="1"/>
         <v>-112.932</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1866</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>3000</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3240</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>8000</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>2.4691358024691357</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>58</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="5">
+        <v>-117.36</v>
+      </c>
+      <c r="H9">
         <v>3034</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-112.849</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="1"/>
         <v>-117.36</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2249</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="AC9">
+        <f>0.7*5.7</f>
+        <v>3.9899999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>3200</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>3240</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>9300</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>2.8703703703703702</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>50</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="5">
+        <v>-122.4</v>
+      </c>
+      <c r="H10">
         <v>3185</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-117.967</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="1"/>
         <v>-122.4</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2518</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1.3740000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="AC10">
+        <f>4400-3500</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>3400</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>3240</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>11800</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>3.6419753086419755</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>40</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="5">
+        <v>-131.04</v>
+      </c>
+      <c r="H11">
         <v>3274</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-121.742</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="1"/>
         <v>-131.04</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2729</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="AC11">
+        <f>3700/900</f>
+        <v>4.1111111111111107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>3500</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>3240</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>13200</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>4.0740740740740744</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="13">
         <v>33</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="5">
+        <v>-138.42000000000002</v>
+      </c>
+      <c r="H12">
         <v>3366</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-126.47</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="1"/>
         <v>-138.42000000000002</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2937</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="AC12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>3600</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>3240</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>15000</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>4.6296296296296298</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="13">
         <v>28</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="5">
+        <v>-143.71199999999999</v>
+      </c>
+      <c r="H13">
         <v>3524</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-137.6</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="1"/>
         <v>-143.71199999999999</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3098</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2.5169999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>3700</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>3240</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>16700</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>5.1543209876543212</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>17</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="5">
+        <v>-157.35599999999999</v>
+      </c>
+      <c r="H14">
         <v>3707</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-156.619</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="1"/>
         <v>-157.35599999999999</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3282</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3.1749999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>3800</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>3240</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>17800</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>5.4938271604938276</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="5">
+        <v>-170.42400000000001</v>
+      </c>
+      <c r="H15">
         <v>3883</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-180.65899999999999</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="1"/>
         <v>-170.42400000000001</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3428</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>3900</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>3240</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>18200</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>5.617283950617284</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="13">
         <v>-5</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="5">
+        <v>-187.02</v>
+      </c>
+      <c r="H16">
         <v>3936</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-188.042</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="1"/>
         <v>-187.02</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3549</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4.5720000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>4000</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>3240</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>17600</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>5.4320987654320989</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="13">
         <v>-7</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="5">
+        <v>-190.08</v>
+      </c>
+      <c r="H17">
         <v>4180</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-215.60599999999999</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="1"/>
         <v>-190.08</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3673</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5.327</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>4100</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>3240</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>17000</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>5.2469135802469138</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="13">
         <v>-17</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="5">
+        <v>-205.09199999999998</v>
+      </c>
+      <c r="H18">
         <v>4286</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-223.185</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>-205.09199999999998</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3733</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5.64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>4200</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>3240</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>15000</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>4.6296296296296298</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="13">
         <v>-20</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="5">
+        <v>-210.24</v>
+      </c>
+      <c r="H19">
         <v>4376</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-229.28800000000001</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>-210.24</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3776</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5.8795999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>4500</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>3240</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>11500</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>3.5493827160493829</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="13">
         <v>-32</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="5">
+        <v>-231.84</v>
+      </c>
+      <c r="H20">
         <v>4447</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-232.83799999999999</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>-231.84</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3809</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>5.9189999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>4750</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>3240</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>9200</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>2.8395061728395063</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13">
         <v>-39</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="5">
+        <v>-246.69</v>
+      </c>
+      <c r="H21">
         <v>4572</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-237.83600000000001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>-246.69</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>3874</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>6.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>5000</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>3240</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>7500</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>2.3148148148148149</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="13">
         <v>-37</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="5">
+        <v>-246.6</v>
+      </c>
+      <c r="H22">
         <v>4667</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-240.56200000000001</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>-246.6</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3963</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>5.89</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>6000</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>3240</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>5000</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>1.5432098765432098</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="13">
         <v>-35</v>
       </c>
-      <c r="G23">
+      <c r="F23" s="5">
+        <v>-255.6</v>
+      </c>
+      <c r="H23">
         <v>4787</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-243.96</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>-255.6</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4071</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5.46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>7000</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>3240</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>3800</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>1.1728395061728396</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="13">
         <v>-32</v>
       </c>
-      <c r="G24">
+      <c r="F24" s="5">
+        <v>-260.64</v>
+      </c>
+      <c r="H24">
         <v>4876</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-245.85900000000001</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="1"/>
         <v>-260.64</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>4294</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>4.3150000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>9000</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>3240</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>2600</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="12">
         <f t="shared" ref="D25:D28" si="2">C25/B25</f>
         <v>0.80246913580246915</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="13">
         <v>-26</v>
       </c>
-      <c r="G25">
+      <c r="F25" s="5">
+        <v>-264.24</v>
+      </c>
+      <c r="H25">
         <v>5024</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-248.28100000000001</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="1"/>
         <v>-264.24</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>4576</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3.367</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>12000</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>3240</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>2100</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="12">
         <f t="shared" si="2"/>
         <v>0.64814814814814814</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="13">
         <v>-19</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="5">
+        <v>-262.08</v>
+      </c>
+      <c r="H26">
         <v>5322</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-252.137</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>-262.08</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4688</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2.8980000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>15000</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>3240</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>1800</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="12">
         <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="13">
         <v>-16</v>
       </c>
-      <c r="G27">
+      <c r="F27" s="5">
+        <v>-266.39999999999998</v>
+      </c>
+      <c r="H27">
         <v>5795</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-256.87</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="1"/>
         <v>-266.39999999999998</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>4897</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2.448</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>30000</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="5">
         <v>3240</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="5">
         <v>1200</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <f t="shared" si="2"/>
         <v>0.37037037037037035</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>-8</v>
       </c>
-      <c r="G28">
+      <c r="F28" s="5">
+        <v>-266.39999999999998</v>
+      </c>
+      <c r="H28">
         <v>6656</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-259.91300000000001</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="1"/>
         <v>-266.39999999999998</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5096</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2.1347999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="G29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="H29">
         <v>8530</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-263.65800000000002</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5390</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.7949999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="G30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="H30">
         <v>29182</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-270.10899999999998</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5823</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.46</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="J31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="K31">
         <v>6299</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.2236</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="J32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="K32">
         <v>7445</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>0.89</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="J33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="K33">
         <v>9075</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.65490000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="J34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="K34">
         <v>11722</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.46679999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="J35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="K35">
         <v>17910</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.28616999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K36">
         <v>30000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.16600000000000001</v>
       </c>
     </row>

--- a/POMIARY.xlsx
+++ b/POMIARY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t xml:space="preserve">1 zmierzyć czy filtr filtruje </t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>wyn</t>
   </si>
 </sst>
 </file>
@@ -345,124 +348,8 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>pomiar</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$F$20:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>448</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>704</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>964</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1224</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1352</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$A$20:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.68</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>teoria</c:v>
           </c:tx>
@@ -576,6 +463,236 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>pomiar</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$R$34:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$Q$34:$Q$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.27700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>oscyloskop</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$20:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$20:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -584,11 +701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201164592"/>
-        <c:axId val="201165152"/>
+        <c:axId val="133024736"/>
+        <c:axId val="133025296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201164592"/>
+        <c:axId val="133024736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,12 +818,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201165152"/>
+        <c:crossAx val="133025296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201165152"/>
+        <c:axId val="133025296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +936,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201164592"/>
+        <c:crossAx val="133024736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1459,11 +1576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201167952"/>
-        <c:axId val="201653024"/>
+        <c:axId val="192277344"/>
+        <c:axId val="192277904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201167952"/>
+        <c:axId val="192277344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1583,12 +1700,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201653024"/>
+        <c:crossAx val="192277904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201653024"/>
+        <c:axId val="192277904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1823,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201167952"/>
+        <c:crossAx val="192277344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2305,11 +2422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201655824"/>
-        <c:axId val="201656384"/>
+        <c:axId val="192280704"/>
+        <c:axId val="192281264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201655824"/>
+        <c:axId val="192280704"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2429,12 +2546,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201656384"/>
+        <c:crossAx val="192281264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201656384"/>
+        <c:axId val="192281264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2673,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201655824"/>
+        <c:crossAx val="192280704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4310,15 +4427,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>442911</xdr:colOff>
+      <xdr:colOff>500061</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4692,10 +4809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5048,100 +5165,169 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>1000</v>
       </c>
       <c r="O33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O34">
         <v>-2.9670000000000001</v>
       </c>
       <c r="P34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>-2.82</v>
+      </c>
+      <c r="R34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O35">
         <v>2.11</v>
       </c>
       <c r="P35">
         <v>190</v>
       </c>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="R35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O36">
         <v>-1.51</v>
       </c>
       <c r="P36">
         <v>310</v>
       </c>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>-1.3029999999999999</v>
+      </c>
+      <c r="R36">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O37">
         <v>1.08</v>
       </c>
       <c r="P37">
         <v>440</v>
       </c>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R37">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O38">
         <v>-0.77</v>
       </c>
       <c r="P38">
         <v>570</v>
       </c>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>-0.6</v>
+      </c>
+      <c r="R38">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O39">
         <v>0.55000000000000004</v>
       </c>
       <c r="P39">
         <v>690</v>
       </c>
-    </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="R39">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O40">
         <v>-0.39500000000000002</v>
       </c>
       <c r="P40">
         <v>820</v>
       </c>
-    </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="R40">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O41">
         <v>0.28199999999999997</v>
       </c>
       <c r="P41">
         <v>950</v>
       </c>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>0.188</v>
+      </c>
+      <c r="R41">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O42">
         <v>-0.2</v>
       </c>
       <c r="P42">
         <v>1075</v>
       </c>
-    </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>-0.128</v>
+      </c>
+      <c r="R42">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O43">
         <v>0.14399999999999999</v>
       </c>
       <c r="P43">
         <v>1200</v>
       </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="R43">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="O44">
         <v>-0.1</v>
       </c>
       <c r="P44">
         <v>1330</v>
+      </c>
+      <c r="Q44">
+        <v>-0.06</v>
+      </c>
+      <c r="R44">
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
